--- a/ig/sd-short-primarypurpose/all-profiles.xlsx
+++ b/ig/sd-short-primarypurpose/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-15T15:54:43+00:00</t>
+    <t>2024-02-15T16:41:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2140,7 +2140,7 @@
     <t>ResearchStudy.primaryPurposeType</t>
   </si>
   <si>
-    <t>treatment | prevention | diagnostic | supportive-care | screening | health-services-research | basic-science | device-feasibility</t>
+    <t>Objectif principal / Primary purpose</t>
   </si>
   <si>
     <t>The type of study based upon the intent of the study's activities. A classification of the intent of the study.</t>
@@ -25543,7 +25543,7 @@
         <v>83</v>
       </c>
       <c r="I194" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="J194" t="s" s="2">
         <v>76</v>

--- a/ig/sd-short-primarypurpose/all-profiles.xlsx
+++ b/ig/sd-short-primarypurpose/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-15T16:41:53+00:00</t>
+    <t>2024-02-15T16:54:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
